--- a/Program/Other/Sharepoint上傳用/測試FT/L7/L7205/FT_L7205.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L7/L7205/FT_L7205.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L7\L7203\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L7\L7205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E480195F-83F3-41BC-B73B-8B73DC3A7549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6AD84D-11CB-45CF-A58A-B3A06783763A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name=" FT_L7203" sheetId="1" r:id="rId1"/>
+    <sheet name=" FT_L7205" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -106,18 +106,6 @@
     <t>Ready</t>
   </si>
   <si>
-    <t>FT\L7\L7203利息法帳面資料上傳作業</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>L7203利息法帳面資料上傳作業</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>L7203</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[輸入欄位]年</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -131,10 +119,6 @@
   </si>
   <si>
     <t>1.限輸入數字，檢核條件：不可輸入0/V(2)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.限輸入數字，檢核條件：需介於01至12/V(5)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -146,15 +130,31 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_7介接外部系統_V1.9.docx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1.以滑鼠點選[選擇檔案]按鈕，選取指定位置、檔名之上傳檔案</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>cu31780005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT\L7\L7205五類資產分類上傳轉檔作業</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L7205五類資產分類上傳轉檔作業</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L7205</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.限輸入數字，檢核條件：需介於01至12/V(5)2.預設值為上月，若會計日期為月底日則預設本月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_7介接外部系統_V1.94.docx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -746,22 +746,22 @@
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="7" t="s">
@@ -771,16 +771,16 @@
         <v>13</v>
       </c>
       <c r="J2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -788,27 +788,27 @@
         <v>19</v>
       </c>
       <c r="Q2" s="17">
-        <v>44578</v>
+        <v>44616</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" s="22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="21" t="s">
@@ -818,42 +818,42 @@
         <v>13</v>
       </c>
       <c r="J3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q3" s="23">
-        <v>44578</v>
+        <v>44616</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="12" t="s">
@@ -863,16 +863,16 @@
         <v>13</v>
       </c>
       <c r="J4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
@@ -880,7 +880,7 @@
         <v>19</v>
       </c>
       <c r="Q4" s="18">
-        <v>44578</v>
+        <v>44616</v>
       </c>
     </row>
   </sheetData>
